--- a/GL20_TestData_CloseAccountingPeriod_21B.xlsx
+++ b/GL20_TestData_CloseAccountingPeriod_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A90295B-DDEF-4D4F-8238-CC5B3B17CA3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C804576-2BFB-45D9-8203-89697FA3C714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,12 +44,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Ledger</t>
-  </si>
-  <si>
-    <t>US Primary Ledger</t>
-  </si>
-  <si>
     <t>LowWait</t>
   </si>
   <si>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <t>2020-11</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Period Should be OPEN</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,25 +118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,40 +151,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,113 +489,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.7265625" style="2"/>
-    <col min="13" max="13" width="31.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.7265625" customWidth="1"/>
+    <col min="12" max="12" width="44.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="D2" s="4">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="E2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="F2" s="4">
         <v>30</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="4">
         <v>15</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H2" s="4">
         <v>30</v>
       </c>
-      <c r="G2" s="3">
+      <c r="I2" s="4">
         <v>60</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="4">
         <v>120</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
